--- a/reports/ResultsOfClassifiers.xlsx
+++ b/reports/ResultsOfClassifiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratibha\Documents\AA\CW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ABDA45-1147-4899-973D-6FA1E2372F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0117AC28-0CFB-49AE-8FA6-47A735A651A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="16">
   <si>
     <t>Naïve Bayes</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Best Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using only countVectorizer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using only tfidfVectorizer </t>
   </si>
 </sst>
 </file>
@@ -102,12 +108,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,9 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,212 +427,470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="T1:X34"/>
+  <dimension ref="H1:Z34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="21" max="21" width="8.88671875" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" customWidth="1"/>
-    <col min="23" max="23" width="5.77734375" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" customWidth="1"/>
+    <col min="25" max="25" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="X1" s="1" t="s">
+    <row r="1" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="K1" s="4"/>
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="X2" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T3" t="s">
+    <row r="3" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="W4" s="1">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="K4" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="Q4" s="1">
         <v>0.75</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T5">
+      <c r="R4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0.51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="W5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T6">
+      <c r="Y5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0.67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6">
         <v>0.78</v>
       </c>
-      <c r="W6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T7">
+      <c r="Y6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0.79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7">
         <v>0.8</v>
       </c>
-      <c r="W7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T9">
+      <c r="Y7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0.71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9">
         <v>0.75</v>
       </c>
-      <c r="W9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T10">
+      <c r="Y9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0.65</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10">
         <v>0.72</v>
       </c>
-      <c r="W10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T11">
+      <c r="Y10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0.69</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11">
         <v>0.75</v>
       </c>
-      <c r="W11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="X14" s="1" t="s">
+      <c r="Y11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="L14" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="W15" s="1">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="K15" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="Q15" s="1">
         <v>0.69</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T16">
+      <c r="R15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H16">
         <v>0.4</v>
       </c>
-      <c r="W16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T17">
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>0.4</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>0.64</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17">
         <v>0.78</v>
       </c>
-      <c r="W17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T18">
+      <c r="Y17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>0.77</v>
+      </c>
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18">
         <v>0.8</v>
       </c>
-      <c r="W18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T20">
+      <c r="Y18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>0.69</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20">
         <v>0.73</v>
       </c>
-      <c r="W20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T21">
+      <c r="Y20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>0.6</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21">
         <v>0.66</v>
       </c>
-      <c r="W21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T22">
+      <c r="Y21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>0.66</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22">
         <v>0.71</v>
       </c>
-      <c r="W22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="X25" s="1" t="s">
+      <c r="Y22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="L25" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="W26" s="1">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="K26" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="Q26" s="1">
         <v>0.61</v>
       </c>
-      <c r="X26" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T27">
+      <c r="R26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>0.04</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27">
         <v>0.36</v>
       </c>
-      <c r="W27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T28">
+      <c r="Y27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>0.05</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>4</v>
+      </c>
+      <c r="V28">
         <v>0.35</v>
       </c>
-      <c r="W28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T29">
+      <c r="Y28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>0.68</v>
+      </c>
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29">
         <v>0.72</v>
       </c>
-      <c r="W29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="20:24" x14ac:dyDescent="0.3">
-      <c r="T32">
+      <c r="Y29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="8:26" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>0.52</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>6</v>
+      </c>
+      <c r="V32">
         <v>0.6</v>
       </c>
-      <c r="W32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="20:23" x14ac:dyDescent="0.3">
-      <c r="T33">
+      <c r="Y32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="8:25" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>0.25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>7</v>
+      </c>
+      <c r="V33">
         <v>0.48</v>
       </c>
-      <c r="W33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="20:23" x14ac:dyDescent="0.3">
-      <c r="T34">
+      <c r="Y33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="8:25" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>0.37</v>
+      </c>
+      <c r="K34" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>8</v>
+      </c>
+      <c r="V34">
         <v>0.54</v>
       </c>
-      <c r="W34" t="s">
+      <c r="Y34" t="s">
         <v>8</v>
       </c>
     </row>

--- a/reports/ResultsOfClassifiers.xlsx
+++ b/reports/ResultsOfClassifiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratibha\Documents\AA\CW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0117AC28-0CFB-49AE-8FA6-47A735A651A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31167D60-2F37-49D9-8E5C-A759BA572133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="17">
   <si>
     <t>Naïve Bayes</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">Using only tfidfVectorizer </t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <dimension ref="H1:Z34"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,6 +508,9 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
       <c r="Q4" s="1">
         <v>0.75</v>
       </c>
@@ -525,6 +531,9 @@
       <c r="K5" t="s">
         <v>3</v>
       </c>
+      <c r="O5">
+        <v>0.59</v>
+      </c>
       <c r="Q5" t="s">
         <v>3</v>
       </c>
@@ -542,6 +551,9 @@
       <c r="K6" t="s">
         <v>4</v>
       </c>
+      <c r="O6">
+        <v>0.79</v>
+      </c>
       <c r="Q6" t="s">
         <v>4</v>
       </c>
@@ -559,6 +571,9 @@
       <c r="K7" t="s">
         <v>5</v>
       </c>
+      <c r="O7">
+        <v>0.81</v>
+      </c>
       <c r="Q7" t="s">
         <v>5</v>
       </c>
@@ -576,6 +591,9 @@
       <c r="K9" t="s">
         <v>6</v>
       </c>
+      <c r="O9">
+        <v>0.76</v>
+      </c>
       <c r="Q9" t="s">
         <v>6</v>
       </c>
@@ -593,6 +611,9 @@
       <c r="K10" t="s">
         <v>7</v>
       </c>
+      <c r="O10">
+        <v>0.73</v>
+      </c>
       <c r="Q10" t="s">
         <v>7</v>
       </c>
@@ -609,6 +630,9 @@
       </c>
       <c r="K11" t="s">
         <v>8</v>
+      </c>
+      <c r="O11">
+        <v>0.76</v>
       </c>
       <c r="Q11" t="s">
         <v>8</v>
@@ -662,8 +686,11 @@
       <c r="K16" t="s">
         <v>3</v>
       </c>
+      <c r="O16">
+        <v>0.4</v>
+      </c>
       <c r="Q16" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="V16">
         <v>0.4</v>
@@ -679,6 +706,9 @@
       <c r="K17" t="s">
         <v>4</v>
       </c>
+      <c r="O17">
+        <v>0.77</v>
+      </c>
       <c r="Q17" t="s">
         <v>4</v>
       </c>
@@ -696,6 +726,9 @@
       <c r="K18" t="s">
         <v>5</v>
       </c>
+      <c r="O18">
+        <v>0.79</v>
+      </c>
       <c r="Q18" t="s">
         <v>5</v>
       </c>
@@ -713,6 +746,9 @@
       <c r="K20" t="s">
         <v>6</v>
       </c>
+      <c r="O20">
+        <v>0.73</v>
+      </c>
       <c r="Q20" t="s">
         <v>6</v>
       </c>
@@ -730,6 +766,9 @@
       <c r="K21" t="s">
         <v>7</v>
       </c>
+      <c r="O21">
+        <v>0.66</v>
+      </c>
       <c r="Q21" t="s">
         <v>7</v>
       </c>
@@ -746,6 +785,9 @@
       </c>
       <c r="K22" t="s">
         <v>8</v>
+      </c>
+      <c r="O22">
+        <v>0.7</v>
       </c>
       <c r="Q22" t="s">
         <v>8</v>
@@ -799,8 +841,11 @@
       <c r="K27" t="s">
         <v>3</v>
       </c>
+      <c r="O27">
+        <v>0.39</v>
+      </c>
       <c r="Q27" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="V27">
         <v>0.36</v>
@@ -816,6 +861,9 @@
       <c r="K28" t="s">
         <v>4</v>
       </c>
+      <c r="O28">
+        <v>0.31</v>
+      </c>
       <c r="Q28" t="s">
         <v>4</v>
       </c>
@@ -833,6 +881,9 @@
       <c r="K29" t="s">
         <v>5</v>
       </c>
+      <c r="O29">
+        <v>0.71</v>
+      </c>
       <c r="Q29" t="s">
         <v>5</v>
       </c>
@@ -850,6 +901,9 @@
       <c r="K32" t="s">
         <v>6</v>
       </c>
+      <c r="O32">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="Q32" t="s">
         <v>6</v>
       </c>
@@ -867,6 +921,9 @@
       <c r="K33" t="s">
         <v>7</v>
       </c>
+      <c r="O33">
+        <v>0.47</v>
+      </c>
       <c r="Q33" t="s">
         <v>7</v>
       </c>
@@ -883,6 +940,9 @@
       </c>
       <c r="K34" t="s">
         <v>8</v>
+      </c>
+      <c r="O34">
+        <v>0.53</v>
       </c>
       <c r="Q34" t="s">
         <v>8</v>

--- a/reports/ResultsOfClassifiers.xlsx
+++ b/reports/ResultsOfClassifiers.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratibha\Documents\AA\CW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31167D60-2F37-49D9-8E5C-A759BA572133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBBD5B2-0BDF-4190-8C61-1850AFA91469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TextBlob" sheetId="1" r:id="rId1"/>
-    <sheet name="Roberta" sheetId="2" r:id="rId2"/>
+    <sheet name="Vader" sheetId="3" r:id="rId2"/>
+    <sheet name="Roberta" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="22">
   <si>
     <t>Naïve Bayes</t>
   </si>
@@ -88,6 +89,21 @@
   </si>
   <si>
     <t>negative</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>Using  Vader</t>
+  </si>
+  <si>
+    <t>Using only tfidfVectorizer</t>
+  </si>
+  <si>
+    <t>Using only countVectorizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutral </t>
   </si>
 </sst>
 </file>
@@ -111,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +146,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -143,13 +171,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +465,7 @@
   <dimension ref="H1:Z34"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,7 +573,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="Y5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="8:26" x14ac:dyDescent="0.3">
@@ -716,7 +748,7 @@
         <v>0.78</v>
       </c>
       <c r="Y17" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="8:26" x14ac:dyDescent="0.3">
@@ -961,24 +993,538 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE55A90-0C79-4F1E-ABC0-F4221AE6315F}">
+  <dimension ref="B1:S35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="Q1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="P2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>0.59</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>0.68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>0.68</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0.78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>0.78</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0.71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>0.71</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0.68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>0.68</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0.7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>0.7</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>0.36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>0.34</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>0.68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>0.68</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>0.75</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>0.66</v>
+      </c>
+      <c r="J21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>0.66</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22">
+        <v>0.59</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>0.63</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>0.62</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>0.49</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29">
+        <v>0.47</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>0.17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30">
+        <v>0.16</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>0.7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>0.69</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>5</v>
+      </c>
+      <c r="S31">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0.59</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>0.46</v>
+      </c>
+      <c r="J34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>0.44</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>0.53</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <v>0.52</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35">
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6412661-9E70-4F3D-8284-4D5DC40F54C8}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1001,30 +1547,48 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
+      <c r="G5">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>4</v>
       </c>
+      <c r="G6">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>5</v>
       </c>
+      <c r="G7">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>6</v>
       </c>
+      <c r="G9">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>7</v>
       </c>
+      <c r="G10">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>8</v>
+      </c>
+      <c r="G11">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1038,45 +1602,63 @@
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,34 +1666,52 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>8</v>
+      </c>
+      <c r="G34">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
